--- a/doc/Annexes/2309_AutomatisationPriseImageRTI_Commande1.xlsx
+++ b/doc/Annexes/2309_AutomatisationPriseImageRTI_Commande1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -573,16 +573,26 @@
   </si>
   <si>
     <t>Knurled, Diamond Knob 0.236" (6.00mm) Shaft with Metal Clear Matte</t>
+  </si>
+  <si>
+    <t>Non utilisé</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -629,13 +639,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +949,7 @@
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -972,7 +984,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1112,42 +1124,45 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>0.49</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="7">
         <v>0.49</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1197,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1248,7 +1263,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1281,7 +1296,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1314,7 +1329,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -1347,7 +1362,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1380,7 +1395,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1413,7 +1428,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -1446,7 +1461,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
